--- a/testeXML.xlsx
+++ b/testeXML.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Tempo de total</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Tempo de deserialização</t>
-  </si>
-  <si>
-    <t>tamanho bytes</t>
   </si>
   <si>
     <t>owner</t>
@@ -377,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,28 +787,28 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>85300</v>
+        <v>110753</v>
       </c>
       <c r="C12">
-        <v>83762</v>
+        <v>119579</v>
       </c>
       <c r="D12">
-        <v>89956</v>
+        <v>123747</v>
       </c>
       <c r="E12">
-        <v>94807</v>
+        <v>131501</v>
       </c>
       <c r="F12">
-        <v>95084</v>
+        <v>148880</v>
       </c>
       <c r="G12">
-        <v>117085</v>
+        <v>133849</v>
       </c>
       <c r="H12">
-        <v>143830</v>
+        <v>569000</v>
       </c>
       <c r="I12">
-        <v>169987</v>
+        <v>1373437</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -846,28 +843,28 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>7740</v>
+        <v>12531</v>
       </c>
       <c r="C13">
-        <v>9034</v>
+        <v>14576</v>
       </c>
       <c r="D13">
-        <v>21676</v>
+        <v>49324</v>
       </c>
       <c r="E13">
-        <v>21107</v>
+        <v>49778</v>
       </c>
       <c r="F13">
-        <v>24496</v>
+        <v>71122</v>
       </c>
       <c r="G13">
-        <v>67717</v>
+        <v>174070</v>
       </c>
       <c r="H13">
-        <v>32348</v>
+        <v>450150</v>
       </c>
       <c r="I13">
-        <v>37229</v>
+        <v>883796</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -902,28 +899,28 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>4946</v>
+        <v>10989</v>
       </c>
       <c r="C14">
-        <v>14670</v>
+        <v>32408</v>
       </c>
       <c r="D14">
-        <v>14423</v>
+        <v>38703</v>
       </c>
       <c r="E14">
-        <v>16530</v>
+        <v>43909</v>
       </c>
       <c r="F14">
-        <v>17671</v>
+        <v>53270</v>
       </c>
       <c r="G14">
-        <v>19068</v>
+        <v>96556</v>
       </c>
       <c r="H14">
-        <v>22775</v>
+        <v>244537</v>
       </c>
       <c r="I14">
-        <v>34078</v>
+        <v>892374</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -958,28 +955,28 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>5408</v>
+        <v>10075</v>
       </c>
       <c r="C15">
-        <v>14989</v>
+        <v>30502</v>
       </c>
       <c r="D15">
-        <v>14638</v>
+        <v>37791</v>
       </c>
       <c r="E15">
-        <v>15914</v>
+        <v>46520</v>
       </c>
       <c r="F15">
-        <v>16790</v>
+        <v>49917</v>
       </c>
       <c r="G15">
-        <v>18314</v>
+        <v>202217</v>
       </c>
       <c r="H15">
-        <v>20000</v>
+        <v>247059</v>
       </c>
       <c r="I15">
-        <v>45291</v>
+        <v>785967</v>
       </c>
       <c r="L15">
         <v>4</v>
@@ -1014,28 +1011,28 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>4366</v>
+        <v>9157</v>
       </c>
       <c r="C16">
-        <v>12863</v>
-      </c>
-      <c r="D16">
-        <v>13277</v>
-      </c>
-      <c r="E16">
-        <v>39346</v>
+        <v>28783</v>
+      </c>
+      <c r="D16" s="1">
+        <v>35272</v>
+      </c>
+      <c r="E16" s="1">
+        <v>42014</v>
       </c>
       <c r="F16">
-        <v>15523</v>
+        <v>73691</v>
       </c>
       <c r="G16">
-        <v>15079</v>
+        <v>92244</v>
       </c>
       <c r="H16">
-        <v>14736</v>
+        <v>229275</v>
       </c>
       <c r="I16">
-        <v>22256</v>
+        <v>835724</v>
       </c>
       <c r="L16">
         <v>5</v>
@@ -1065,7 +1062,63 @@
         <v>124968</v>
       </c>
     </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>75</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>250</v>
+      </c>
+      <c r="H18">
+        <v>500</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>82505</v>
+      </c>
+      <c r="C19">
+        <v>86812</v>
+      </c>
+      <c r="D19">
+        <v>85410</v>
+      </c>
+      <c r="E19">
+        <v>87906</v>
+      </c>
+      <c r="F19">
+        <v>43581</v>
+      </c>
+      <c r="G19">
+        <v>108401</v>
+      </c>
+      <c r="H19">
+        <v>122351</v>
+      </c>
+      <c r="I19">
+        <v>138497</v>
+      </c>
       <c r="L19" t="s">
         <v>1</v>
       </c>
@@ -1094,7 +1147,34 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>5754</v>
+      </c>
+      <c r="C20">
+        <v>7860</v>
+      </c>
+      <c r="D20">
+        <v>18828</v>
+      </c>
+      <c r="E20">
+        <v>18666</v>
+      </c>
+      <c r="F20">
+        <v>22626</v>
+      </c>
+      <c r="G20">
+        <v>140155</v>
+      </c>
+      <c r="H20">
+        <v>29457</v>
+      </c>
+      <c r="I20">
+        <v>28714</v>
+      </c>
       <c r="L20">
         <v>1</v>
       </c>
@@ -1123,7 +1203,34 @@
         <v>2781599</v>
       </c>
     </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>5367</v>
+      </c>
+      <c r="C21">
+        <v>14789</v>
+      </c>
+      <c r="D21">
+        <v>14789</v>
+      </c>
+      <c r="E21">
+        <v>16282</v>
+      </c>
+      <c r="F21">
+        <v>16119</v>
+      </c>
+      <c r="G21">
+        <v>73649</v>
+      </c>
+      <c r="H21">
+        <v>22482</v>
+      </c>
+      <c r="I21">
+        <v>63566</v>
+      </c>
       <c r="L21">
         <v>2</v>
       </c>
@@ -1152,7 +1259,34 @@
         <v>2123577</v>
       </c>
     </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>5628</v>
+      </c>
+      <c r="C22">
+        <v>13316</v>
+      </c>
+      <c r="D22">
+        <v>14082</v>
+      </c>
+      <c r="E22">
+        <v>14406</v>
+      </c>
+      <c r="F22">
+        <v>16636</v>
+      </c>
+      <c r="G22">
+        <v>185981</v>
+      </c>
+      <c r="H22">
+        <v>17229</v>
+      </c>
+      <c r="I22">
+        <v>15450</v>
+      </c>
       <c r="L22">
         <v>3</v>
       </c>
@@ -1181,7 +1315,34 @@
         <v>2162410</v>
       </c>
     </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>5071</v>
+      </c>
+      <c r="C23">
+        <v>12167</v>
+      </c>
+      <c r="D23">
+        <v>12842</v>
+      </c>
+      <c r="E23">
+        <v>14577</v>
+      </c>
+      <c r="F23">
+        <v>13477</v>
+      </c>
+      <c r="G23">
+        <v>77071</v>
+      </c>
+      <c r="H23">
+        <v>12675</v>
+      </c>
+      <c r="I23">
+        <v>14105</v>
+      </c>
       <c r="L23">
         <v>4</v>
       </c>
@@ -1210,7 +1371,7 @@
         <v>2162271</v>
       </c>
     </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L24">
         <v>5</v>
       </c>
@@ -1239,93 +1400,262 @@
         <v>2124945</v>
       </c>
     </row>
-    <row r="29" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>75</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>250</v>
+      </c>
+      <c r="H26">
+        <v>500</v>
+      </c>
+      <c r="I26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>18434</v>
+      </c>
+      <c r="C27">
+        <v>21217</v>
+      </c>
+      <c r="D27">
+        <v>27229</v>
+      </c>
+      <c r="E27">
+        <v>31196</v>
+      </c>
+      <c r="F27">
+        <v>43581</v>
+      </c>
+      <c r="G27">
+        <v>263191</v>
+      </c>
+      <c r="H27">
+        <v>419218</v>
+      </c>
+      <c r="I27">
+        <v>1186139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>5887</v>
+      </c>
+      <c r="C28">
+        <v>5469</v>
+      </c>
+      <c r="D28">
+        <v>28006</v>
+      </c>
+      <c r="E28">
+        <v>28671</v>
+      </c>
+      <c r="F28">
+        <v>44163</v>
+      </c>
+      <c r="G28">
+        <v>25957</v>
+      </c>
+      <c r="H28">
+        <v>416128</v>
+      </c>
+      <c r="I28">
+        <v>837265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4766</v>
+      </c>
+      <c r="C29">
+        <v>16176</v>
+      </c>
+      <c r="D29">
+        <v>22180</v>
+      </c>
+      <c r="E29">
+        <v>25135</v>
+      </c>
+      <c r="F29">
+        <v>29928</v>
+      </c>
+      <c r="G29">
+        <v>20074</v>
+      </c>
+      <c r="H29">
+        <v>218840</v>
+      </c>
+      <c r="I29">
+        <v>824021</v>
+      </c>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I30" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>3718</v>
+      </c>
+      <c r="C30">
+        <v>16046</v>
+      </c>
+      <c r="D30">
+        <v>21784</v>
+      </c>
+      <c r="E30">
+        <v>29624</v>
+      </c>
+      <c r="F30">
+        <v>57563</v>
+      </c>
+      <c r="G30">
+        <v>14275</v>
+      </c>
+      <c r="H30">
+        <v>227857</v>
+      </c>
+      <c r="I30">
+        <v>764935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>3273</v>
+      </c>
+      <c r="C31">
+        <v>15427</v>
+      </c>
+      <c r="D31">
+        <v>20588</v>
+      </c>
+      <c r="E31">
+        <v>24877</v>
+      </c>
+      <c r="F31">
+        <v>42163</v>
+      </c>
+      <c r="G31">
+        <v>13706</v>
+      </c>
+      <c r="H31">
+        <v>214556</v>
+      </c>
+      <c r="I31">
+        <v>816047</v>
+      </c>
+    </row>
+    <row r="35" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>25</v>
+      </c>
+      <c r="N35">
+        <v>50</v>
+      </c>
+      <c r="O35">
+        <v>75</v>
+      </c>
+      <c r="P35">
+        <v>100</v>
+      </c>
+      <c r="Q35">
+        <v>250</v>
+      </c>
+      <c r="R35">
+        <v>500</v>
+      </c>
+      <c r="S35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
         <v>6</v>
       </c>
-      <c r="J30">
-        <v>10</v>
-      </c>
-      <c r="K30">
-        <v>25</v>
-      </c>
-      <c r="L30">
-        <v>50</v>
-      </c>
-      <c r="M30">
-        <v>75</v>
-      </c>
-      <c r="N30">
-        <v>100</v>
-      </c>
-      <c r="O30">
-        <v>250</v>
-      </c>
-      <c r="P30">
-        <v>500</v>
-      </c>
-      <c r="Q30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I31" t="s">
+      <c r="L36">
+        <v>1247</v>
+      </c>
+      <c r="M36">
+        <v>3048</v>
+      </c>
+      <c r="N36">
+        <v>6049</v>
+      </c>
+      <c r="O36">
+        <v>9065</v>
+      </c>
+      <c r="P36">
+        <v>12092</v>
+      </c>
+      <c r="Q36">
+        <v>30180</v>
+      </c>
+      <c r="R36">
+        <v>60289</v>
+      </c>
+      <c r="S36">
+        <v>120494</v>
+      </c>
+    </row>
+    <row r="37" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
         <v>7</v>
       </c>
-      <c r="J31">
-        <v>1247</v>
-      </c>
-      <c r="K31">
-        <v>3048</v>
-      </c>
-      <c r="L31">
-        <v>6049</v>
-      </c>
-      <c r="M31">
-        <v>9065</v>
-      </c>
-      <c r="N31">
-        <v>12092</v>
-      </c>
-      <c r="O31">
-        <v>30180</v>
-      </c>
-      <c r="P31">
-        <v>60289</v>
-      </c>
-      <c r="Q31">
-        <v>120494</v>
-      </c>
-    </row>
-    <row r="32" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32">
+      <c r="L37">
         <v>1914</v>
       </c>
-      <c r="K32">
+      <c r="M37">
         <v>4715</v>
       </c>
-      <c r="L32">
+      <c r="N37">
         <v>9418</v>
       </c>
-      <c r="M32">
+      <c r="O37">
         <v>14055</v>
       </c>
-      <c r="N32">
+      <c r="P37">
         <v>18610</v>
       </c>
-      <c r="O32">
+      <c r="Q37">
         <v>46870</v>
       </c>
-      <c r="P32">
+      <c r="R37">
         <v>94018</v>
       </c>
-      <c r="Q32">
+      <c r="S37">
         <v>188485</v>
       </c>
     </row>
